--- a/SuppXLS/Scen_Refineries_Flex.xlsx
+++ b/SuppXLS/Scen_Refineries_Flex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIAN\Music\TIMES-UIS-v1-Nov\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A051B5E-55F5-4F4E-973C-1AAA61DB09AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8499E81-AD38-413F-A561-6223181C0F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REF2-LO" sheetId="5" r:id="rId1"/>
@@ -838,8 +838,8 @@
   </sheetPr>
   <dimension ref="D4:AK72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L16" workbookViewId="0">
-      <selection activeCell="AA49" sqref="AA49:AK50"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2756,43 +2756,43 @@
         <v>DSL</v>
       </c>
       <c r="AB39">
-        <f>+SUM(AB31:AB37)</f>
+        <f t="shared" ref="AB39:AK39" si="10">+SUM(AB31:AB37)</f>
         <v>371.06680829977802</v>
       </c>
       <c r="AC39">
-        <f>+SUM(AC31:AC37)</f>
+        <f t="shared" si="10"/>
         <v>424.36734709489832</v>
       </c>
       <c r="AD39">
-        <f>+SUM(AD31:AD37)</f>
+        <f t="shared" si="10"/>
         <v>424.36734709489832</v>
       </c>
       <c r="AE39">
-        <f>+SUM(AE31:AE37)</f>
+        <f t="shared" si="10"/>
         <v>424.36734709489832</v>
       </c>
       <c r="AF39">
-        <f>+SUM(AF31:AF37)</f>
+        <f t="shared" si="10"/>
         <v>424.36734709489832</v>
       </c>
       <c r="AG39">
-        <f>+SUM(AG31:AG37)</f>
+        <f t="shared" si="10"/>
         <v>424.36734709489866</v>
       </c>
       <c r="AH39">
-        <f>+SUM(AH31:AH37)</f>
+        <f t="shared" si="10"/>
         <v>424.36734709489832</v>
       </c>
       <c r="AI39">
-        <f>+SUM(AI31:AI37)</f>
+        <f t="shared" si="10"/>
         <v>424.36734709489832</v>
       </c>
       <c r="AJ39">
-        <f>+SUM(AJ31:AJ37)</f>
+        <f t="shared" si="10"/>
         <v>424.36734709489866</v>
       </c>
       <c r="AK39">
-        <f>+SUM(AK31:AK37)</f>
+        <f t="shared" si="10"/>
         <v>424.36734709489866</v>
       </c>
     </row>
@@ -2898,39 +2898,39 @@
         <v>0</v>
       </c>
       <c r="AC43" s="30">
-        <f t="shared" ref="AC43:AK43" si="10">+AC31/AC$39</f>
+        <f t="shared" ref="AC43:AK43" si="11">+AC31/AC$39</f>
         <v>1.0000000000000015E-3</v>
       </c>
       <c r="AD43" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0000000000000015E-3</v>
       </c>
       <c r="AE43" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0000000000000015E-3</v>
       </c>
       <c r="AF43" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0000000000000015E-3</v>
       </c>
       <c r="AG43" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0000000000000007E-3</v>
       </c>
       <c r="AH43" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0000000000000015E-3</v>
       </c>
       <c r="AI43" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0000000000000015E-3</v>
       </c>
       <c r="AJ43" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0000000000000007E-3</v>
       </c>
       <c r="AK43" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0000000000000007E-3</v>
       </c>
     </row>
@@ -2963,43 +2963,43 @@
         <v>20</v>
       </c>
       <c r="AB44" s="30">
-        <f t="shared" ref="AB44:AK44" si="11">+AB32/AB$39</f>
+        <f t="shared" ref="AB44:AK44" si="12">+AB32/AB$39</f>
         <v>0.37924249877029004</v>
       </c>
       <c r="AC44" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.34239999999999959</v>
       </c>
       <c r="AD44" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.34239999999999959</v>
       </c>
       <c r="AE44" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.34239999999999959</v>
       </c>
       <c r="AF44" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.34239999999999959</v>
       </c>
       <c r="AG44" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.3290564528226414</v>
       </c>
       <c r="AH44" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.34239999999999959</v>
       </c>
       <c r="AI44" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.34239999999999959</v>
       </c>
       <c r="AJ44" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.3290564528226414</v>
       </c>
       <c r="AK44" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.3290564528226414</v>
       </c>
     </row>
@@ -3045,43 +3045,43 @@
         <v>19</v>
       </c>
       <c r="AB45" s="30">
-        <f t="shared" ref="AB45:AK45" si="12">+AB33/AB$39</f>
+        <f t="shared" ref="AB45:AK45" si="13">+AB33/AB$39</f>
         <v>0.30324643384161265</v>
       </c>
       <c r="AC45" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.32140607030351492</v>
       </c>
       <c r="AD45" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.32140607030351492</v>
       </c>
       <c r="AE45" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.32140607030351492</v>
       </c>
       <c r="AF45" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.32140607030351492</v>
       </c>
       <c r="AG45" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.32140607030351465</v>
       </c>
       <c r="AH45" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.32140607030351492</v>
       </c>
       <c r="AI45" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.32140607030351492</v>
       </c>
       <c r="AJ45" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.32140607030351465</v>
       </c>
       <c r="AK45" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.32140607030351465</v>
       </c>
     </row>
@@ -3121,43 +3121,43 @@
         <v>23</v>
       </c>
       <c r="AB46" s="30">
-        <f t="shared" ref="AB46:AK46" si="13">+AB34/AB$39</f>
+        <f t="shared" ref="AB46:AK46" si="14">+AB34/AB$39</f>
         <v>0.19367929168716244</v>
       </c>
       <c r="AC46" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.15797000000000028</v>
       </c>
       <c r="AD46" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.15797000000000028</v>
       </c>
       <c r="AE46" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.15797000000000028</v>
       </c>
       <c r="AF46" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.15797000000000028</v>
       </c>
       <c r="AG46" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.15797000000000014</v>
       </c>
       <c r="AH46" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.15797000000000028</v>
       </c>
       <c r="AI46" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.15797000000000028</v>
       </c>
       <c r="AJ46" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.15797000000000014</v>
       </c>
       <c r="AK46" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.15797000000000014</v>
       </c>
     </row>
@@ -3197,43 +3197,43 @@
         <v>21</v>
       </c>
       <c r="AB47" s="30">
-        <f t="shared" ref="AB47:AK47" si="14">+AB35/AB$39</f>
+        <f t="shared" ref="AB47:AK47" si="15">+AB35/AB$39</f>
         <v>8.8047220855878267E-2</v>
       </c>
       <c r="AC47" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7.9603980199010035E-2</v>
       </c>
       <c r="AD47" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7.9603980199010035E-2</v>
       </c>
       <c r="AE47" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7.9603980199010035E-2</v>
       </c>
       <c r="AF47" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7.9603980199010035E-2</v>
       </c>
       <c r="AG47" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7.9603980199009966E-2</v>
       </c>
       <c r="AH47" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7.9603980199010035E-2</v>
       </c>
       <c r="AI47" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7.9603980199010035E-2</v>
       </c>
       <c r="AJ47" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7.9603980199009966E-2</v>
       </c>
       <c r="AK47" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7.9603980199009966E-2</v>
       </c>
     </row>
@@ -3273,43 +3273,43 @@
         <v>22</v>
       </c>
       <c r="AB48" s="30">
-        <f t="shared" ref="AB48:AK48" si="15">+AB36/AB$39</f>
+        <f t="shared" ref="AB48:AK48" si="16">+AB36/AB$39</f>
         <v>0</v>
       </c>
       <c r="AC48" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.5617849392470012E-2</v>
       </c>
       <c r="AD48" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.5617849392470012E-2</v>
       </c>
       <c r="AE48" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.5617849392470012E-2</v>
       </c>
       <c r="AF48" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.5617849392470012E-2</v>
       </c>
       <c r="AG48" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.8961396569828817E-2</v>
       </c>
       <c r="AH48" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.5617849392470012E-2</v>
       </c>
       <c r="AI48" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.5617849392470012E-2</v>
       </c>
       <c r="AJ48" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.8961396569828817E-2</v>
       </c>
       <c r="AK48" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.8961396569828817E-2</v>
       </c>
     </row>
@@ -3349,43 +3349,43 @@
         <v>39</v>
       </c>
       <c r="AB49" s="30">
-        <f t="shared" ref="AB49:AK49" si="16">+AB37/AB$39</f>
+        <f t="shared" ref="AB49:AK49" si="17">+AB37/AB$39</f>
         <v>3.578455484505657E-2</v>
       </c>
       <c r="AC49" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.2002100105005179E-2</v>
       </c>
       <c r="AD49" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.2002100105005179E-2</v>
       </c>
       <c r="AE49" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.2002100105005179E-2</v>
       </c>
       <c r="AF49" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.2002100105005179E-2</v>
       </c>
       <c r="AG49" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.2002100105005144E-2</v>
       </c>
       <c r="AH49" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.2002100105005179E-2</v>
       </c>
       <c r="AI49" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.2002100105005179E-2</v>
       </c>
       <c r="AJ49" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.2002100105005144E-2</v>
       </c>
       <c r="AK49" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.2002100105005144E-2</v>
       </c>
     </row>
@@ -3419,43 +3419,43 @@
         <v>RFG2</v>
       </c>
       <c r="AB50" s="30">
-        <f t="shared" ref="AB50:AK50" si="17">+AB38/AB$39</f>
+        <f t="shared" ref="AB50:AK50" si="18">+AB38/AB$39</f>
         <v>0</v>
       </c>
       <c r="AC50" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD50" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AE50" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AF50" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AG50" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AH50" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AI50" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AJ50" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AK50" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>

--- a/SuppXLS/Scen_Refineries_Flex.xlsx
+++ b/SuppXLS/Scen_Refineries_Flex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIAN\Music\TIMES-UIS-v1-Nov\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8499E81-AD38-413F-A561-6223181C0F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF23BE1-077B-483E-95DA-B17B68A33ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REF2-LO" sheetId="5" r:id="rId1"/>
@@ -838,8 +838,8 @@
   </sheetPr>
   <dimension ref="D4:AK72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:K9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6587,8 +6587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00905DE-6CE8-4F5B-9115-2E641D5266FC}">
   <dimension ref="D4:AL63"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:I11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6735,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="30">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="J9" s="26">
         <v>1.7999999999999999E-2</v>
@@ -6804,7 +6804,7 @@
       </c>
       <c r="I12">
         <f>+SUM(I6:I11)</f>
-        <v>0.77500000000000002</v>
+        <v>0.78400000000000014</v>
       </c>
       <c r="J12" s="27">
         <f t="shared" ref="J12:K12" si="0">+SUM(J6:J11)</f>
@@ -7149,7 +7149,7 @@
       </c>
       <c r="U22" s="26">
         <f>+SUM(J22:J27)</f>
-        <v>0.77500000000000002</v>
+        <v>0.78400000000000014</v>
       </c>
       <c r="AA22" s="26"/>
       <c r="AB22" s="26"/>
@@ -7222,7 +7222,7 @@
         <v>26</v>
       </c>
       <c r="J25" s="26">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="L25" t="s">
         <v>25</v>
@@ -7309,7 +7309,7 @@
       </c>
       <c r="U28">
         <f>+SUM(J28:J33)</f>
-        <v>0.77500000000000002</v>
+        <v>0.78400000000000014</v>
       </c>
     </row>
     <row r="29" spans="4:36" x14ac:dyDescent="0.25">
@@ -7388,7 +7388,7 @@
       </c>
       <c r="I31" s="16"/>
       <c r="J31" s="22">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="K31" s="16"/>
       <c r="L31" s="16" t="s">
@@ -7487,7 +7487,7 @@
       </c>
       <c r="U34">
         <f>+SUM(J34:J39)</f>
-        <v>0.77500000000000002</v>
+        <v>0.78400000000000014</v>
       </c>
     </row>
     <row r="35" spans="4:38" x14ac:dyDescent="0.25">
@@ -7550,7 +7550,7 @@
         <v>26</v>
       </c>
       <c r="J37" s="26">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="L37" t="s">
         <v>25</v>
@@ -7637,7 +7637,7 @@
       </c>
       <c r="U40">
         <f>+SUM(J40:J45)</f>
-        <v>0.77500000000000002</v>
+        <v>0.78400000000000014</v>
       </c>
       <c r="AB40" s="26"/>
       <c r="AC40" s="26"/>
@@ -7746,7 +7746,7 @@
       </c>
       <c r="I43" s="16"/>
       <c r="J43" s="22">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="K43" s="16"/>
       <c r="L43" s="16" t="s">
@@ -7876,7 +7876,7 @@
       </c>
       <c r="U46">
         <f>+SUM(J46:J51)</f>
-        <v>0.77500000000000002</v>
+        <v>0.78400000000000014</v>
       </c>
     </row>
     <row r="47" spans="4:38" x14ac:dyDescent="0.25">
@@ -7939,7 +7939,7 @@
         <v>26</v>
       </c>
       <c r="J49" s="26">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="L49" t="s">
         <v>25</v>
@@ -8026,7 +8026,7 @@
       </c>
       <c r="U52">
         <f>+SUM(J52:J57)</f>
-        <v>0.77500000000000002</v>
+        <v>0.78400000000000014</v>
       </c>
     </row>
     <row r="53" spans="4:21" x14ac:dyDescent="0.25">
@@ -8105,7 +8105,7 @@
       </c>
       <c r="I55" s="16"/>
       <c r="J55" s="22">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="K55" s="16"/>
       <c r="L55" s="16" t="s">
@@ -8204,7 +8204,7 @@
       </c>
       <c r="U58">
         <f>+SUM(J58:J63)</f>
-        <v>0.77500000000000002</v>
+        <v>0.78400000000000014</v>
       </c>
     </row>
     <row r="59" spans="4:21" x14ac:dyDescent="0.25">
@@ -8267,7 +8267,7 @@
         <v>26</v>
       </c>
       <c r="J61" s="26">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="L61" t="s">
         <v>25</v>

--- a/SuppXLS/Scen_Refineries_Flex.xlsx
+++ b/SuppXLS/Scen_Refineries_Flex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIAN\Music\TIMES-UIS-v1-Nov\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF23BE1-077B-483E-95DA-B17B68A33ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186CADBF-AEA9-4B56-BC26-99CE7EDA4008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REF2-LO" sheetId="5" r:id="rId1"/>
@@ -838,8 +838,8 @@
   </sheetPr>
   <dimension ref="D4:AK72"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:J9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,7 +898,7 @@
         <v>29</v>
       </c>
       <c r="P5" s="21">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="Y5" t="s">
         <v>3</v>
@@ -2008,7 +2008,7 @@
       </c>
       <c r="J24" s="28" cm="1">
         <f t="array" ref="J24:J30">+IF(G24&lt;$P$5,$G$6:$G$12,$I$6:$I$12)</f>
-        <v>0.29846</v>
+        <v>0</v>
       </c>
       <c r="L24" s="9" t="s">
         <v>37</v>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="U24" s="28">
         <f>+SUM(J24:J29)</f>
-        <v>0.93309383319165962</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="28">
         <f t="shared" ref="AA24:AJ24" si="9">+AA14/AA$14</f>
@@ -2076,7 +2076,7 @@
         <v>26</v>
       </c>
       <c r="J25" s="26">
-        <v>0.32905645282264107</v>
+        <v>0</v>
       </c>
       <c r="L25" t="s">
         <v>37</v>
@@ -2099,7 +2099,7 @@
         <v>26</v>
       </c>
       <c r="J26" s="26">
-        <v>7.9603980199009952E-2</v>
+        <v>0</v>
       </c>
       <c r="L26" t="s">
         <v>37</v>
@@ -2122,7 +2122,7 @@
         <v>26</v>
       </c>
       <c r="J27" s="26">
-        <v>2.6001300065003247E-2</v>
+        <v>0</v>
       </c>
       <c r="L27" t="s">
         <v>37</v>
@@ -2145,7 +2145,7 @@
         <v>26</v>
       </c>
       <c r="J28" s="26">
-        <v>0.15797</v>
+        <v>0</v>
       </c>
       <c r="L28" t="s">
         <v>37</v>
@@ -2174,7 +2174,7 @@
         <v>26</v>
       </c>
       <c r="J29" s="26">
-        <v>4.2002100105005248E-2</v>
+        <v>0</v>
       </c>
       <c r="L29" t="s">
         <v>37</v>
@@ -2233,7 +2233,7 @@
         <v>26</v>
       </c>
       <c r="J30" s="26">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="L30" t="s">
         <v>37</v>
@@ -4063,7 +4063,7 @@
   <dimension ref="D4:AJ72"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4122,7 +4122,7 @@
         <v>29</v>
       </c>
       <c r="P5" s="21">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="Y5" t="s">
         <v>3</v>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="J24" s="28" cm="1">
         <f t="array" ref="J24:J30">+IF(G24&lt;$P$5,$F$6:$F$12,$J$6:$J$12)</f>
-        <v>0.32140607030351515</v>
+        <v>0.30324643384161337</v>
       </c>
       <c r="L24" s="9" t="s">
         <v>37</v>
@@ -5243,7 +5243,7 @@
       </c>
       <c r="U24" s="28">
         <f>+SUM(J24:J29)</f>
-        <v>1.0649161168058403</v>
+        <v>1</v>
       </c>
       <c r="AA24" s="28">
         <f t="shared" ref="AA24:AJ24" si="9">+AA14/AA$14</f>
@@ -5300,7 +5300,7 @@
         <v>26</v>
       </c>
       <c r="J25" s="26">
-        <v>0.34239999999999998</v>
+        <v>0.3792424987702902</v>
       </c>
       <c r="L25" t="s">
         <v>37</v>
@@ -5323,7 +5323,7 @@
         <v>26</v>
       </c>
       <c r="J26" s="26">
-        <v>8.0479999999999996E-2</v>
+        <v>8.8047220855878017E-2</v>
       </c>
       <c r="L26" t="s">
         <v>37</v>
@@ -5346,7 +5346,7 @@
         <v>26</v>
       </c>
       <c r="J27" s="26">
-        <v>6.9000000000000006E-2</v>
+        <v>0</v>
       </c>
       <c r="L27" t="s">
         <v>37</v>
@@ -5369,7 +5369,7 @@
         <v>26</v>
       </c>
       <c r="J28" s="26">
-        <v>0.20093004650232507</v>
+        <v>0.19367929168716183</v>
       </c>
       <c r="L28" t="s">
         <v>37</v>
@@ -5392,7 +5392,7 @@
         <v>26</v>
       </c>
       <c r="J29" s="26">
-        <v>5.0700000000000002E-2</v>
+        <v>3.578455484505657E-2</v>
       </c>
       <c r="L29" t="s">
         <v>37</v>
@@ -5415,7 +5415,7 @@
         <v>26</v>
       </c>
       <c r="J30" s="26">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="L30" t="s">
         <v>37</v>
@@ -6587,8 +6587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00905DE-6CE8-4F5B-9115-2E641D5266FC}">
   <dimension ref="D4:AL63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6640,8 +6640,7 @@
         <v>29</v>
       </c>
       <c r="P5" s="21">
-        <f>+'REF1-UP'!P5</f>
-        <v>2020</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="6" spans="4:36" x14ac:dyDescent="0.25">
@@ -7139,7 +7138,7 @@
       </c>
       <c r="J22" s="28" cm="1">
         <f t="array" ref="J22:J27">+IF(G22&lt;$P$5,$G$6:$G$11,$I$6:$I$11)</f>
-        <v>0.29299999999999998</v>
+        <v>0</v>
       </c>
       <c r="L22" t="s">
         <v>25</v>
@@ -7149,7 +7148,7 @@
       </c>
       <c r="U22" s="26">
         <f>+SUM(J22:J27)</f>
-        <v>0.78400000000000014</v>
+        <v>0</v>
       </c>
       <c r="AA22" s="26"/>
       <c r="AB22" s="26"/>
@@ -7176,7 +7175,7 @@
         <v>26</v>
       </c>
       <c r="J23" s="26">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="L23" t="s">
         <v>25</v>
@@ -7199,7 +7198,7 @@
         <v>26</v>
       </c>
       <c r="J24" s="26">
-        <v>5.5999999999999994E-2</v>
+        <v>0</v>
       </c>
       <c r="L24" t="s">
         <v>25</v>
@@ -7222,7 +7221,7 @@
         <v>26</v>
       </c>
       <c r="J25" s="26">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L25" t="s">
         <v>25</v>
@@ -7245,7 +7244,7 @@
         <v>26</v>
       </c>
       <c r="J26" s="26">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="L26" t="s">
         <v>25</v>
@@ -7268,7 +7267,7 @@
         <v>26</v>
       </c>
       <c r="J27" s="26">
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="L27" t="s">
         <v>25</v>
@@ -8336,8 +8335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D4:AJ63"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="J13" workbookViewId="0">
-      <selection activeCell="AA39" sqref="AA39:AJ45"/>
+    <sheetView showGridLines="0" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8395,7 +8394,7 @@
         <v>29</v>
       </c>
       <c r="P5" s="21">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="Y5" t="s">
         <v>3</v>
@@ -9412,7 +9411,7 @@
       </c>
       <c r="J22" s="28" cm="1">
         <f t="array" ref="J22:J27">+IF(G22&lt;$P$5,$F$6:$F$11,$J$6:$J$11)</f>
-        <v>0.3987</v>
+        <v>0.26682352941176474</v>
       </c>
       <c r="L22" t="s">
         <v>25</v>
@@ -9422,7 +9421,7 @@
       </c>
       <c r="U22" s="26">
         <f>+SUM(J22:J27)</f>
-        <v>1.2164999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA22" s="26">
         <f t="shared" ref="AA22:AJ22" si="8">+AA13/AA$13</f>
@@ -9479,7 +9478,7 @@
         <v>26</v>
       </c>
       <c r="J23" s="26">
-        <v>0.55200000000000005</v>
+        <v>0.6</v>
       </c>
       <c r="L23" t="s">
         <v>25</v>
@@ -9502,7 +9501,7 @@
         <v>26</v>
       </c>
       <c r="J24" s="26">
-        <v>0.12379999999999999</v>
+        <v>6.2588235294117653E-2</v>
       </c>
       <c r="L24" t="s">
         <v>25</v>
@@ -9525,7 +9524,7 @@
         <v>26</v>
       </c>
       <c r="J25" s="26">
-        <v>1.7999999999999999E-2</v>
+        <v>2.1176470588235293E-2</v>
       </c>
       <c r="L25" t="s">
         <v>25</v>
@@ -9548,7 +9547,7 @@
         <v>26</v>
       </c>
       <c r="J26" s="26">
-        <v>9.9000000000000005E-2</v>
+        <v>1.1294117647058823E-2</v>
       </c>
       <c r="L26" t="s">
         <v>25</v>
@@ -9571,7 +9570,7 @@
         <v>26</v>
       </c>
       <c r="J27" s="26">
-        <v>2.5000000000000001E-2</v>
+        <v>3.8117647058823534E-2</v>
       </c>
       <c r="L27" t="s">
         <v>25</v>
